--- a/Projeto/Documentação/Product_Backlog.xlsx
+++ b/Projeto/Documentação/Product_Backlog.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C00A0D-1679-47B3-AA3D-C79081BFB7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0388A285-FA13-472E-BB64-1F2E22DDCBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint BAcklog" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog'!$A$2:$H$46</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,11 +35,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="109">
   <si>
     <t xml:space="preserve">Projeto GrapeSci - Product Baclog </t>
   </si>
   <si>
+    <t>GRUPO 11</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -60,6 +67,9 @@
     <t>Sprint</t>
   </si>
   <si>
+    <t>Integrantes</t>
+  </si>
+  <si>
     <t>IDE Arduíno</t>
   </si>
   <si>
@@ -75,6 +85,9 @@
     <t>Sprint1</t>
   </si>
   <si>
+    <t>Felipe Gasparoto</t>
+  </si>
+  <si>
     <t>Organização do Trello</t>
   </si>
   <si>
@@ -84,6 +97,9 @@
     <t xml:space="preserve">Importante </t>
   </si>
   <si>
+    <t>Sarah Leal</t>
+  </si>
+  <si>
     <t>Banco de dados</t>
   </si>
   <si>
@@ -93,24 +109,36 @@
     <t>GG</t>
   </si>
   <si>
+    <t>Juliana Freires</t>
+  </si>
+  <si>
     <t>Diagrama de negócio</t>
   </si>
   <si>
     <t>Diagrama o qual contém a regra de negócio do projeto mostrando a aplicação do projeto e relação com o cliente.</t>
   </si>
   <si>
+    <t>Tales Ito</t>
+  </si>
+  <si>
     <t>Design Login</t>
   </si>
   <si>
     <t>Design da tela de Login do site institucional (não funcional).</t>
   </si>
   <si>
+    <t>Gustavo Presilli</t>
+  </si>
+  <si>
     <t>Design Cadastro</t>
   </si>
   <si>
     <t>Design da tela de Cadastro do site institucional (não funcional).</t>
   </si>
   <si>
+    <t>Ricken Scharlack</t>
+  </si>
+  <si>
     <t>Revisar Documentação</t>
   </si>
   <si>
@@ -180,6 +208,9 @@
     <t>Protótipo das telas</t>
   </si>
   <si>
+    <t>Montagem de um protótipo para as telas referentes ao site institucional, projetando uma ideia inicial do que será exibido.</t>
+  </si>
+  <si>
     <t>Backlog - Excel</t>
   </si>
   <si>
@@ -210,13 +241,19 @@
     <t>Site Estático Institucional</t>
   </si>
   <si>
+    <t>Site estático funcional contendo informações sobre a empresa e o projeto, e sendo capacidade de redirecionamento para as páginas de login, cadastro e dashboards.</t>
+  </si>
+  <si>
     <t>Site Estático Cadastro</t>
   </si>
   <si>
+    <t>Site estático com funcionalidade de cadastro, porém sem a integração a um banco de dados.</t>
+  </si>
+  <si>
     <t>Site Estático Login</t>
   </si>
   <si>
-    <t>Um site estático com funcionalidade de login, oferecendo acesso a recursos específicos por meio de autenticação de usuário.</t>
+    <t>Um site estático com funcionalidade de login, oferecendo acesso a recursos específicos por meio de autenticação de usuário, porém sem a integração a um banco de dados.</t>
   </si>
   <si>
     <t>Diagrama de Solução</t>
@@ -267,21 +304,36 @@
     <t xml:space="preserve">Manual de instalação </t>
   </si>
   <si>
+    <t xml:space="preserve">Um manual de instalação de nosso projeto ao cliente, com detalhes de como funcionará a instalação para que ele possa usar </t>
+  </si>
+  <si>
     <t>Sprint3</t>
   </si>
   <si>
     <t>Documentação final do projeto</t>
   </si>
   <si>
+    <t>Documentação final do projeto, contemplando tudo que foi realizado durante o projeto, e o que foi feito e o seu porque</t>
+  </si>
+  <si>
     <t>PPT de apresentação do projeto</t>
   </si>
   <si>
+    <t>Power Point mostrando o projeto que foi realizado</t>
+  </si>
+  <si>
     <t>Site institucional - Versão final</t>
   </si>
   <si>
+    <t>Site intitucional em sua versão final</t>
+  </si>
+  <si>
     <t>Cadastro, Login e Dashboard conectado ao BD</t>
   </si>
   <si>
+    <t>Paginas de cadastro, login e dashboards conectadas a nosso banco de dados</t>
+  </si>
+  <si>
     <t>Fluxograma do processo de atendimento do suporte</t>
   </si>
   <si>
@@ -301,22 +353,24 @@
   </si>
   <si>
     <t>Teste integrado da Solução de IoT                   (Arduino + Banco de dados)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projeto GrapeSci - Product Backlog </t>
+  </si>
+  <si>
+    <t>Pàgina Home</t>
+  </si>
+  <si>
+    <t>21.1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -328,8 +382,22 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,8 +410,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29A370"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -351,11 +431,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -366,27 +461,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,6 +509,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF29A370"/>
+      <color rgb="FF36755B"/>
+      <color rgb="FF54BD91"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -722,201 +844,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H47"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="3" max="3" width="68.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="J1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" ht="48" customHeight="1">
-      <c r="A3" s="5">
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="48" hidden="1" customHeight="1">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.75" customHeight="1">
+      <c r="F3" s="4">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" hidden="1" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A5" s="5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="29.25" hidden="1">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29.25">
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29.25" hidden="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1">
-      <c r="A7" s="5">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>21</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" hidden="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
+      <c r="B8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -925,50 +1072,54 @@
         <v>21</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A9" s="5">
+        <v>15</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29.25" hidden="1">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" hidden="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
+      <c r="B10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2">
         <v>3</v>
@@ -977,50 +1128,52 @@
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A11" s="5">
+        <v>15</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="29.25" hidden="1">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="B11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
         <v>8</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29.25">
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="29.25" hidden="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1029,50 +1182,52 @@
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A13" s="5">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="29.25" hidden="1">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.5">
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.5" hidden="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
+      <c r="B14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1081,50 +1236,51 @@
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A15" s="5">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5">
-        <v>13</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29.25">
+        <v>15</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="29.25" hidden="1">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="4">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="29.25" hidden="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
+      <c r="B16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2">
         <v>3</v>
@@ -1133,48 +1289,50 @@
         <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1">
-      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
+    </row>
+    <row r="17" spans="1:8" hidden="1">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="29.25" hidden="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -1183,50 +1341,50 @@
         <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A19" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="29.25" hidden="1">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>13</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>13</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>13</v>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>51</v>
+      <c r="B20" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1235,50 +1393,50 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A21" s="5">
-        <v>19</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4">
         <v>21</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.5">
+      <c r="G21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>56</v>
+      <c r="B22" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1287,46 +1445,50 @@
         <v>21</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="8" customFormat="1">
-      <c r="A23" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.5">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="5">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="B23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4">
         <v>21</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="29.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="3"/>
+      <c r="B24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1335,100 +1497,100 @@
         <v>21</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A25" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="43.5">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="5">
-        <v>2</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="B25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
         <v>21</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>53</v>
+      <c r="G25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="29.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>5</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A27" s="5">
+    </row>
+    <row r="27" spans="1:8" ht="29.25">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="B27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4">
         <v>1</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>21</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>53</v>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>65</v>
+      <c r="B28" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1437,50 +1599,50 @@
         <v>21</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" ht="43.5">
-      <c r="A29" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.5">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="B29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
         <v>21</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>53</v>
+      <c r="G29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="29.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>68</v>
+      <c r="B30" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -1489,50 +1651,50 @@
         <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A31" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29.25">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="5">
-        <v>2</v>
-      </c>
-      <c r="F31" s="5">
-        <v>13</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>53</v>
+      <c r="B31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>13</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>72</v>
+      <c r="B32" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2">
         <v>3</v>
@@ -1541,264 +1703,600 @@
         <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" ht="29.25">
-      <c r="A33" s="5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="29.25">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="B33" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>8</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>53</v>
+      <c r="G33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.5">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H34" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="29.25" hidden="1">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="29.25" hidden="1">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
       <c r="F36" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2">
-        <v>13</v>
-      </c>
-      <c r="G37" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>21</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="29.25" hidden="1">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>8</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="29.25" hidden="1">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="29.25" hidden="1">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2">
+      <c r="B43" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4">
+        <v>13</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4">
+        <v>8</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="29.25" hidden="1">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H46" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Sprint2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061A0CDC-D512-404F-8006-E0F7A97B78D5}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25">
+      <c r="A1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" ht="29.25">
+      <c r="A2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A3" s="4">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
         <v>21</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="29.25">
-      <c r="B40" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2">
-        <v>8</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="29.25">
-      <c r="B41" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2">
-        <v>5</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="29.25">
-      <c r="B42" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2">
-        <v>8</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2">
-        <v>5</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2">
-        <v>13</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2">
-        <v>8</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2">
-        <v>8</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="29.25">
-      <c r="B47" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2">
-        <v>13</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>78</v>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A5" s="4">
+        <v>21</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A6">
+        <v>21.1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A8" s="2">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.75">
+      <c r="A9" s="4">
+        <v>23</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.5">
+      <c r="A10" s="2">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>21</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
